--- a/biology/Médecine/Institut_de_réadaptation_Gingras-Lindsay-de-Montréal/Institut_de_réadaptation_Gingras-Lindsay-de-Montréal.xlsx
+++ b/biology/Médecine/Institut_de_réadaptation_Gingras-Lindsay-de-Montréal/Institut_de_réadaptation_Gingras-Lindsay-de-Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_de_r%C3%A9adaptation_Gingras-Lindsay-de-Montr%C3%A9al</t>
+          <t>Institut_de_réadaptation_Gingras-Lindsay-de-Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut de réadaptation Gingras-Lindsay-de-Montréal (IRGLM) est un hôpital de réadaptation affilié à l'Université de Montréal. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_de_r%C3%A9adaptation_Gingras-Lindsay-de-Montr%C3%A9al</t>
+          <t>Institut_de_réadaptation_Gingras-Lindsay-de-Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La clientèle est adulte et peut présenter une ou plusieurs déficiences physiques temporaires ou permanentes à la suite d’une maladie ou d’un traumatisme. Elle peut être hospitalisée dans l’un des deux pavillons de l’Institut, le pavillon Gingras et le pavillon Lindsay. 
 La clientèle est prise en charge par des équipes interdisciplinaires dans le cadre de quatre programmes-clientèles :
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_de_r%C3%A9adaptation_Gingras-Lindsay-de-Montr%C3%A9al</t>
+          <t>Institut_de_réadaptation_Gingras-Lindsay-de-Montréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Pavillons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pavillon Gingras, 6300, avenue Darlington, Montréal - 45° 30′ 29″ N, 73° 37′ 52″ O
 Pavillon Lindsay, 6363 chemin Hudson, Montréal - 45° 30′ 25″ N, 73° 37′ 54″ O</t>
